--- a/final_project/gru_gbrbm_H_per_2 (drop 0.1)/type2/pd_results_W20_H50_B32.xlsx
+++ b/final_project/gru_gbrbm_H_per_2 (drop 0.1)/type2/pd_results_W20_H50_B32.xlsx
@@ -502,23 +502,25 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5495495495495496</v>
-      </c>
-      <c r="B2" t="inlineStr"/>
+        <v>0.5512048192771084</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5495495495495496</v>
+        <v>0.5525525525525525</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7093023255813954</v>
+        <v>0.7106796116504854</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4474474474474475</v>
+        <v>0.4714714714714714</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -526,19 +528,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.09463196255821885</v>
+        <v>0.09311108792207132</v>
       </c>
       <c r="J2" t="n">
-        <v>1219.861827187234</v>
+        <v>1226.314597970281</v>
       </c>
       <c r="K2" t="n">
-        <v>1944545.54829987</v>
+        <v>2113192.144383681</v>
       </c>
       <c r="L2" t="n">
-        <v>1394.46962975171</v>
+        <v>1453.682270781233</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6384547846845259</v>
+        <v>0.6070986819968553</v>
       </c>
     </row>
   </sheetData>
